--- a/Tasks/Views.xlsx
+++ b/Tasks/Views.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>MockUp</t>
   </si>
@@ -121,7 +121,7 @@
     <t>Eliminar organization (grupo) si no tiene equipos</t>
   </si>
   <si>
-    <t>Comprobar que funciona y eliminar equipo si no tiene jugadores</t>
+    <t>Eliminar organization si no tiene equipo</t>
   </si>
 </sst>
 </file>
@@ -537,7 +537,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,7 +607,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>31</v>
@@ -637,7 +637,9 @@
       <c r="B10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">

--- a/Tasks/Views.xlsx
+++ b/Tasks/Views.xlsx
@@ -118,10 +118,10 @@
     <t>Seria necesario un mejor control de errores.</t>
   </si>
   <si>
-    <t>Eliminar organization (grupo) si no tiene equipos</t>
-  </si>
-  <si>
     <t>Eliminar organization si no tiene equipo</t>
+  </si>
+  <si>
+    <t>Comprobar eliminar organization</t>
   </si>
 </sst>
 </file>
@@ -537,7 +537,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,10 +635,10 @@
         <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="D10" s="4"/>
     </row>

--- a/Tasks/Views.xlsx
+++ b/Tasks/Views.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>MockUp</t>
   </si>
@@ -537,7 +537,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,16 +677,12 @@
       <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="5"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">

--- a/Tasks/Views.xlsx
+++ b/Tasks/Views.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>MockUp</t>
   </si>
@@ -106,29 +106,17 @@
     <t>Vista Eliminada, no es necesaria</t>
   </si>
   <si>
-    <t>Comprobar que funciona</t>
-  </si>
-  <si>
-    <t>Sin hacer</t>
-  </si>
-  <si>
     <t>General Comments:</t>
   </si>
   <si>
     <t>Seria necesario un mejor control de errores.</t>
-  </si>
-  <si>
-    <t>Eliminar organization si no tiene equipo</t>
-  </si>
-  <si>
-    <t>Comprobar eliminar organization</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,13 +139,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,7 +154,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,11 +173,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -211,27 +187,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Buena" xfId="1" builtinId="26"/>
     <cellStyle name="Incorrecto" xfId="2" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -536,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,12 +536,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -595,52 +568,44 @@
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="5"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -661,20 +626,20 @@
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -693,32 +658,28 @@
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="5"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
@@ -729,28 +690,28 @@
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
@@ -761,30 +722,30 @@
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Tasks/Views.xlsx
+++ b/Tasks/Views.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>MockUp</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Seria necesario un mejor control de errores.</t>
+  </si>
+  <si>
+    <t>No es necesario</t>
   </si>
 </sst>
 </file>
@@ -509,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,7 +574,9 @@
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>

--- a/Tasks/Views.xlsx
+++ b/Tasks/Views.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>MockUp</t>
   </si>
@@ -112,7 +112,13 @@
     <t>Seria necesario un mejor control de errores.</t>
   </si>
   <si>
-    <t>No es necesario</t>
+    <t>Por ahora no se realizará, se hará directamente seleccionar equipos</t>
+  </si>
+  <si>
+    <t>Se llamará Create  Match en la parte front y estará fusionada con configuracion equipo</t>
+  </si>
+  <si>
+    <t>Se llamara Create Team, solo corresponderá a la parte de seleccionar equipos</t>
   </si>
 </sst>
 </file>
@@ -513,7 +519,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,7 +527,7 @@
     <col min="1" max="1" width="37.140625" customWidth="1"/>
     <col min="2" max="2" width="59.28515625" customWidth="1"/>
     <col min="3" max="3" width="59.85546875" customWidth="1"/>
-    <col min="4" max="4" width="60" customWidth="1"/>
+    <col min="4" max="4" width="78" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -544,7 +550,9 @@
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -571,14 +579,14 @@
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -597,12 +605,14 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -735,12 +745,14 @@
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">

--- a/Tasks/Views.xlsx
+++ b/Tasks/Views.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>MockUp</t>
   </si>
@@ -119,13 +119,19 @@
   </si>
   <si>
     <t>Se llamara Create Team, solo corresponderá a la parte de seleccionar equipos</t>
+  </si>
+  <si>
+    <t>Falta probarlo</t>
+  </si>
+  <si>
+    <t>Esqueleto montado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,8 +168,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,6 +199,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -196,12 +214,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -210,10 +229,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Buena" xfId="1" builtinId="26"/>
     <cellStyle name="Incorrecto" xfId="2" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -519,7 +540,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,8 +569,12 @@
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="B2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="D2" s="4" t="s">
         <v>34</v>
       </c>
